--- a/biology/Botanique/Vin_de_raisins_surmûris/Vin_de_raisins_surmûris.xlsx
+++ b/biology/Botanique/Vin_de_raisins_surmûris/Vin_de_raisins_surmûris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vin_de_raisins_surm%C3%BBris</t>
+          <t>Vin_de_raisins_surmûris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin de raisins surmûris est un vin dont une partie du degré d'alcool résulte d'une maturation prolongée de la récolte de raisin au-delà du calendrier commun de culture de la vigne et de vinification, prolongation qui augmente naturellement la teneur en sucre du fruit par évaporation d’une partie de son eau. Dans ce but, le viticulteur a le choix de retarder tant la vendange que le début de la vinification. Il s'agit d'un type de vin prévu par le droit de l'Union européenne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vin_de_raisins_surm%C3%BBris</t>
+          <t>Vin_de_raisins_surmûris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le recours à des procédés de surmaturation existe probablement depuis les origines de la culture de la vigne et est attesté dans l’Antiquité au VIIIe siècle av. J.-C. par Hésiode, dans son poème Les Travaux et les Jours :
-« Et quand Orion et Sirius auront atteint le milieu du ciel, et qu’Aurore aux doigts de rose pourra voir Arcturus, alors, Persès, cueille et rapporte chez toi toutes tes grappes. Expose-les au soleil dix jours et dix nuits, mets-les à l’ombre pendant cinq. Le sixième jour, puise, et mets dans tes vases les dons de Dionysos riche en joies[1]. »
+« Et quand Orion et Sirius auront atteint le milieu du ciel, et qu’Aurore aux doigts de rose pourra voir Arcturus, alors, Persès, cueille et rapporte chez toi toutes tes grappes. Expose-les au soleil dix jours et dix nuits, mets-les à l’ombre pendant cinq. Le sixième jour, puise, et mets dans tes vases les dons de Dionysos riche en joies. »
 Dans son Histoire naturelle au Ier siècle, Pline l’Ancien décrit l’utilisation des procédés de vendange tardive ou de passerillage utilisés, notamment, en Grèce.
-« … on laisse longtemps le raisin sur pied se confire aux rayons du soleil … ou encore … Quelques-uns le font avec tout raisin blanc doux, pourvu qu'il soit très mur; ils le sèchent au soleil, jusqu'à ce que le poids soit réduit d'un peu moins de moitié … [2]. »
+« … on laisse longtemps le raisin sur pied se confire aux rayons du soleil … ou encore … Quelques-uns le font avec tout raisin blanc doux, pourvu qu'il soit très mur; ils le sèchent au soleil, jusqu'à ce que le poids soit réduit d'un peu moins de moitié … . »
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vin_de_raisins_surm%C3%BBris</t>
+          <t>Vin_de_raisins_surmûris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,48 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sens général, un vin rentre dans la catégorie des vins de raisins surmûris quand sa teneur en sucres résiduels exprimée en sucre interverti est égale ou supérieure à 5 g/l, c’est-à-dire les vins entrant dans les catégories des vins demi-secs, moelleux et liquoreux. Au sens strict, le terme a été retenu par le droit de l’Union européenne pour spécifier des vins n’entrant pas dans la classification communautaire des appellations d’origine protégée (AOP) qui correspond à la notion française d’appellation d’origine contrôlée (AOC). Il vise donc principalement à identifier des vins d’indication géographique protégée (IGP) qui répondent aux caractéristiques fixées par les réglementations européennes et nationales.
-Droit de l’Union européenne
-Le droit de l’Union européenne définit la notion de vin de raisins surmûris[3] comme un produit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vin_de_raisins_surmûris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_raisins_surm%C3%BBris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Droit de l’Union européenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le droit de l’Union européenne définit la notion de vin de raisins surmûris comme un produit :
 fabriqué sans enrichissement ;
 ayant un titre alcoométrique volumique naturel supérieur à 15 % vol ;
 ayant un titre alcoométrique volumique total non inférieur à 15 % vol et un titre alcoométrique volumique acquis non inférieur à 12 % vol.
